--- a/Requisitos funcionais e não funcionais.xlsx
+++ b/Requisitos funcionais e não funcionais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESI SENAI 2\OneDrive - SESISENAISP - Escolas\Área de Trabalho\Projeto EmpreGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BF3B4D-8BBC-419D-8DA6-3C338480A0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145016DD-C0D0-4AD2-90DC-BF013BEA703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1835DAB5-5BC5-48D5-B6AE-21326472AE95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1835DAB5-5BC5-48D5-B6AE-21326472AE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos Funcionais" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -231,32 +231,53 @@
     <t>User stories</t>
   </si>
   <si>
-    <t>Como usuário visitante, administrador ou empresa eu quero visualizar todas as vagas cadastradas para que eu possa explorar as vagas disponíveis.</t>
-  </si>
-  <si>
-    <t>Como usuário visitante, administrador ou empresa eu quero pesquisar vagas por palavra-chave, para que eu possa encontrar rapidamente oportunidades relevantes ao meu perfil.</t>
-  </si>
-  <si>
-    <t>Como usuário visitante, administrador ou empresa eu quero abrir uma vaga específica para visualizar detalhes, para facilitar a busca por melhores opções.</t>
-  </si>
-  <si>
-    <t>Como usuário visitante eu quero enviar currículo para uma vaga específica para que eu possa facilitar minha procura por emprego.</t>
-  </si>
-  <si>
-    <t>Como administrador ou empresa eu quero logar no sistema com e-mail e senha para que eu possa acessar as funcionalidades restritas da minha conta.</t>
-  </si>
-  <si>
-    <t>Como administrador eu quero cadastrar uma empresa com e-mail e senha para que eu possa adicionar novas empresas ao sistema.</t>
-  </si>
-  <si>
-    <t>Como administrador eu quero editar os dados de uma empresa cadastrada</t>
+    <t>Como visitante, administrador ou empresa, eu quero visualizar todas as vagas cadastradas para que eu possa explorar as oportunidades disponíveis.</t>
+  </si>
+  <si>
+    <t>Como visitante, administrador ou empresa, eu quero abrir uma vaga específica para visualizar seus detalhes, incluindo descrição, requisitos, salário, benefícios, localização e contato, para que eu possa avaliar se a vaga é adequada para mim ou para minha empresa.</t>
+  </si>
+  <si>
+    <t>Como visitante, administrador ou empresa, eu quero pesquisar vagas por palavra-chave para que eu possa encontrar rapidamente vagas relevantes para meus interesses ou necessidades.</t>
+  </si>
+  <si>
+    <t>Como visitante, eu quero enviar meu currículo para uma vaga específica para que eu possa me candidatar à vaga.</t>
+  </si>
+  <si>
+    <t>Como administrador ou empresa, eu quero logar no sistema com e-mail e senha para que eu possa acessar as funcionalidades restritas da minha conta.</t>
+  </si>
+  <si>
+    <t>Como administrador, eu quero cadastrar uma empresa com e-mail e senha para que eu possa adicionar novas empresas ao sistema.</t>
+  </si>
+  <si>
+    <t>Como administrador, eu quero editar os dados de uma empresa cadastrada para que eu possa manter as informações da empresa atualizadas.</t>
+  </si>
+  <si>
+    <t>Como administrador, eu quero deletar uma empresa cadastrada para que eu possa remover empresas indesejadas do sistema.</t>
+  </si>
+  <si>
+    <t>Como administrador, eu quero desabilitar/habilitar uma empresa cadastrada para que eu possa controlar o acesso da empresa ao sistema.</t>
+  </si>
+  <si>
+    <t>Como empresa, eu quero cadastrar uma nova vaga para que eu possa anunciar oportunidades de emprego.</t>
+  </si>
+  <si>
+    <t>Como empresa, eu quero editar os dados de uma vaga cadastrada para que eu possa manter as informações da vaga atualizadas.</t>
+  </si>
+  <si>
+    <t>Como empresa, eu quero desabilitar/habilitar uma vaga cadastrada para que eu possa controlar a visibilidade da vaga.</t>
+  </si>
+  <si>
+    <t>Como empresa, eu quero deletar uma vaga cadastrada para que eu possa remover vagas expiradas ou preenchidas.</t>
+  </si>
+  <si>
+    <t>Como empresa, eu quero visualizar os currículos recebidos para uma vaga específica para que eu possa avaliar os candidatos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +305,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -329,31 +356,47 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,28 +733,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B70B62E-DBA0-4885-A878-F4473A72E2DE}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="27" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" thickBot="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,14 +764,14 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="58.2" thickBot="1">
+    <row r="3" spans="1:5" ht="60.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,14 +781,14 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58.2" thickBot="1">
+    <row r="4" spans="1:5" ht="90.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -755,14 +798,14 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="58.2" thickBot="1">
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -772,14 +815,14 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.8" thickBot="1">
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -789,14 +832,14 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="55.8" thickBot="1">
+    <row r="7" spans="1:5" ht="60.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -806,14 +849,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" thickBot="1">
+    <row r="8" spans="1:5" ht="45.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -823,14 +866,14 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.2" thickBot="1">
+    <row r="9" spans="1:5" ht="60.75" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -840,14 +883,14 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -860,8 +903,11 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" thickBot="1">
+      <c r="E10" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -871,11 +917,14 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" thickBot="1">
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -885,11 +934,14 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" thickBot="1">
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -899,11 +951,14 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" thickBot="1">
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -913,11 +968,14 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" thickBot="1">
+      <c r="E14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -927,11 +985,14 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" thickBot="1">
+      <c r="E15" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -941,8 +1002,11 @@
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +1015,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -962,23 +1027,23 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.2" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="27" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1006,7 +1071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1020,7 +1085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1034,7 +1099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1">
+    <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1048,7 +1113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1062,7 +1127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1">
+    <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1076,7 +1141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1090,7 +1155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>

--- a/Requisitos funcionais e não funcionais.xlsx
+++ b/Requisitos funcionais e não funcionais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESI SENAI 2\OneDrive - SESISENAISP - Escolas\Área de Trabalho\Projeto EmpreGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145016DD-C0D0-4AD2-90DC-BF013BEA703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D64F7-F69D-4DEC-9096-EAEB33534D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1835DAB5-5BC5-48D5-B6AE-21326472AE95}"/>
   </bookViews>
@@ -320,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -373,6 +373,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -387,16 +400,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +747,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -747,14 +760,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,14 +777,14 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60.75" thickBot="1">
+    <row r="3" spans="1:5" ht="43.5" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,14 +794,14 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90.75" thickBot="1">
+    <row r="4" spans="1:5" ht="43.5" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -798,14 +811,14 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75.75" thickBot="1">
+    <row r="5" spans="1:5" ht="43.5" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,14 +828,14 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -832,14 +845,14 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60.75" thickBot="1">
+    <row r="7" spans="1:5" ht="29.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -849,14 +862,14 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -866,14 +879,14 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60.75" thickBot="1">
+    <row r="9" spans="1:5" ht="29.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -883,7 +896,7 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -903,11 +916,11 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -917,10 +930,10 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -934,10 +947,10 @@
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -951,10 +964,10 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -968,7 +981,7 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -985,7 +998,7 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1002,10 +1015,10 @@
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1036,12 +1049,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" thickBot="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
